--- a/pred_ohlcv/54_21/2019-10-17 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2101055.546856383</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2101055.546856383</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2092694.647656383</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2092694.647656383</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2440265.899456383</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3017046.737256383</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5124160.031656383</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5253411.176656382</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>4906681.014156383</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4906681.014156383</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>4667215.380156383</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4854268.800256383</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>5193757.507156382</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>5193757.507156382</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4937822.307156382</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4916945.573156382</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>4729757.190456382</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>4694137.702856382</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>4694137.702856382</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4578952.237216042</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4578901.287216042</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4583452.240616042</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>4374708.863816042</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4374814.813816043</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>4212994.831316043</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>4212994.831316043</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>4212994.831316043</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4404684.847816042</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>4828531.921516041</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>4828531.921516041</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>4664626.233016041</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>5109355.11771604</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>5057228.347816041</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>5053903.929616041</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>5053892.929616041</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>5053881.929616041</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>5180490.24231604</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>5180490.24231604</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>5042655.69681604</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>5042666.69681604</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>5042604.74681604</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>5042604.74681604</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>4990254.71181604</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4606249.91941604</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>5598473.91441604</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>5363074.031820089</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>5545790.097512347</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>5521968.521412347</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>5521968.521412347</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>5521979.521412347</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>5521979.521412347</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5375122.955812346</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>5375122.955812346</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>5389082.724012346</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>5389082.724012346</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>5389093.724012346</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>5389155.674012346</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>5355394.501912346</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5355394.501912346</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>5319498.423512346</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>5319509.423512346</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>5081128.072212346</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>5081128.072212346</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>5081161.072212346</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>5081161.072212346</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>5009951.341912346</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>5009962.341912346</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>5009962.341912346</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>5009962.341912346</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4971236.357712346</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4940830.599912346</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4982242.142012347</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4982242.142012347</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>5010873.084412347</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>5010873.084412347</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>5010873.084412347</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>5087037.747912346</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>5122192.283312347</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>5122192.283312347</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>5306429.615812346</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>5306429.615812346</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>5306429.615812346</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>5369478.894512346</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>5369478.894512346</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>5369467.894512346</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>5337371.534612346</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>6424316.890312347</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>6424254.940312346</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>6424214.990312346</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>6429047.612312347</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>11977681.24062205</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>12079608.90282205</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>12079608.90282205</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>12004460.28232205</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>12004471.28232205</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>11999205.25572205</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>12217412.51082205</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>12526431.02032205</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>7784425.796847589</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>7784425.796847589</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>7784435.796847589</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>7784435.796847589</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>7784435.796847589</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>7784435.796847589</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>7784435.796847589</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>7784435.796847589</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>7784495.796847589</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>7784495.796847589</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>7783239.970347589</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>7782666.172747589</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>7782666.172747589</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>7782666.172747589</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>7782666.172747589</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>7782666.172747589</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>7782666.172747589</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>7782666.172747589</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>7639315.802947588</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>7639346.802947588</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>7639346.802947588</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>7639346.802947588</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>7639346.802947588</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>7639346.802947588</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>7638346.802947588</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>7638346.802947588</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>7654907.198247588</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>7654907.198247588</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>7654907.198247588</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>7689585.941647588</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>7689585.941647588</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>7689585.941647588</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>7689585.941647588</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>7689585.941647588</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>7787288.433347588</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>7787288.433347588</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>7787288.433347588</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>7788075.433347588</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>7788075.433347588</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>7788065.433347588</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>7788065.433347588</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>7788115.433347588</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>7748474.160747589</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>7748474.160747589</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>7768628.366081638</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>7611171.446081638</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>7786301.379881638</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>7736291.379881638</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>7716844.254081639</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>7716844.254081639</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>7790282.594381639</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>7829592.594381639</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>7371457.871081639</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>7408622.316081639</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>7408622.316081639</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>7408622.316081639</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>7394872.26218164</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>7343521.17258164</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>7352794.10758164</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>7385519.826581639</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>7385550.193781639</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>7499046.035381639</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>10836591.42150881</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>10836591.42150881</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>10825944.47417391</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>10814471.78067392</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>10788895.23687392</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>10787981.80647391</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>10950642.23027391</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>10950642.23027391</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>10406430.91807391</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>10406430.91807391</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>10736542.22547391</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>10743008.22547391</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>10742775.22547391</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>10778200.6862509</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>10778332.6862509</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>10778332.6862509</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>10585558.8524509</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>10585558.8524509</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>10550795.0851509</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>10644381.5515509</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>10644381.5515509</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>10413181.9218509</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>10512862.2210509</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>10458357.3543509</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>10461686.8279509</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>10461686.8279509</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>7448373.41400225</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>7540109.35580225</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>7515284.060867446</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>7886035.320467446</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>7886035.320467446</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>7976776.843167446</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>8115042.118567445</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>9006947.394674342</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>8752790.939574344</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>7735389.778074342</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>7729831.178774342</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>7722552.449974342</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>7710270.586074342</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>7710280.586074342</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>7710280.586074342</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>7692504.586074342</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>7688731.810774342</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>7678119.368374342</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>7705392.111674342</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>7705392.111674342</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>7636476.060674342</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>7711897.126974342</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>7729683.126974342</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>7729683.126974342</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>7729683.126974342</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>7729693.126974342</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>7729723.126974342</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>7729763.126974342</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>7729763.126974342</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>7729763.126974342</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>7729763.126974342</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>7729763.126974342</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>7729763.126974342</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>7729763.126974342</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>7507277.204274342</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>7527298.128874342</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-17 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2101055.546856383</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2101055.546856383</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2092694.647656383</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2092694.647656383</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2440265.899456383</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3017046.737256383</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3749463.944956383</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4634770.467256383</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>5143545.678956383</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>6333715.148156383</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>5810078.693856383</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>5688633.244356383</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5124160.031656383</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5253411.176656382</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5394544.149256382</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5009366.467156382</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>4906681.014156383</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4906681.014156383</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>4667215.380156383</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4854268.800256383</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>5193757.507156382</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>5193757.507156382</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4937822.307156382</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4916945.573156382</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>4729757.190456382</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>4694137.702856382</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>5109355.11771604</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>5057228.347816041</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>5053903.929616041</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>5053892.929616041</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>5053881.929616041</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>5180490.24231604</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>5180490.24231604</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>5042655.69681604</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>5042666.69681604</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>5042604.74681604</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>5042604.74681604</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>4990254.71181604</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4606249.91941604</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>5598473.91441604</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>10631602.98212537</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>11803953.24682537</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>11683233.26792537</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>11652276.17042537</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>11652172.32022537</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>11652172.32022537</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>11652172.32022537</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>11652172.32022537</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>11604746.41882537</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>12096970.26772205</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>12096970.26772205</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>12071622.98172205</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>12071685.93172205</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>12043920.39302205</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>12044015.34302205</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>12044015.34302205</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>12044015.34302205</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>11977681.24062205</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>11977681.24062205</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>11976852.78902205</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>12004460.28232205</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>12217412.51082205</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>12526431.02032205</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>10836591.42150881</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>10836591.42150881</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>10825944.47417391</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>10814471.78067392</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>10788895.23687392</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>10787981.80647391</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>10950642.23027391</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>10950642.23027391</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>10406430.91807391</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>10406430.91807391</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>10736542.22547391</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>10743008.22547391</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>10742775.22547391</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>10778200.6862509</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>10778332.6862509</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>10778332.6862509</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>10585558.8524509</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>10585558.8524509</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>10550795.0851509</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>10644381.5515509</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>10644381.5515509</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>10413181.9218509</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>10512862.2210509</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>10458357.3543509</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>10461686.8279509</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>10461686.8279509</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
